--- a/Anand_Work/FallWork2018/test.xlsx
+++ b/Anand_Work/FallWork2018/test.xlsx
@@ -20332,8 +20332,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CEL15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E5" workbookViewId="0">
-      <selection activeCell="T6" sqref="T6"/>
+    <sheetView tabSelected="1" topLeftCell="BK1" workbookViewId="0">
+      <selection activeCell="BO6" sqref="BO6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Anand_Work/FallWork2018/test.xlsx
+++ b/Anand_Work/FallWork2018/test.xlsx
@@ -20332,7 +20332,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CEL15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BK1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="BH1" workbookViewId="0">
       <selection activeCell="BO6" sqref="BO6"/>
     </sheetView>
   </sheetViews>

--- a/Anand_Work/FallWork2018/test.xlsx
+++ b/Anand_Work/FallWork2018/test.xlsx
@@ -20332,8 +20332,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CEL15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BH1" workbookViewId="0">
-      <selection activeCell="BO6" sqref="BO6"/>
+    <sheetView tabSelected="1" topLeftCell="DV1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="EJ6" sqref="EJ6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Anand_Work/FallWork2018/test.xlsx
+++ b/Anand_Work/FallWork2018/test.xlsx
@@ -20806,8 +20806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CEL20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="61" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" topLeftCell="BTL1" zoomScale="61" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="BTU12" sqref="BTU12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Anand_Work/FallWork2018/test.xlsx
+++ b/Anand_Work/FallWork2018/test.xlsx
@@ -20806,8 +20806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CEL20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BTL1" zoomScale="61" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="BTU12" sqref="BTU12"/>
+    <sheetView tabSelected="1" topLeftCell="CDL1" zoomScale="61" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="CDY10" sqref="CDY10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
